--- a/参数对比.xlsx
+++ b/参数对比.xlsx
@@ -34,167 +34,167 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>dropout_keep_prob</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>l2_reg_lambda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denny Britz</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数取值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型超参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_epochs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>evaluate_every</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint_every</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_checkpoints</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yongyehuang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>learning_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter_sizes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>num_filters</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>dropout_keep_prob</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>l2_reg_lambda</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Denny Britz</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数取值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>模型超参数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>训练参数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>batch_size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>num_epochs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>evaluate_every</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkpoint_every</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>num_checkpoints</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>yongyehuang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>learning_rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>filter_sizes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,4,5,7</t>
+    <t>title_len</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_len</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc_hidden_size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络结构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>embedding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv+bn+relu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxpool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concat+reshape</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc+softmax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络结构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>embedding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv+relu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concat+reshape+dropout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc+softmax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_epoch (update embedding)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_retrain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_max_epoch (num_epochs)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lr (learning rate)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep_prob</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_step</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid_step</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_f1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc+bn+relu+dropout</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>num_filters</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>title_len</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>content_len</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fc_hidden_size</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络结构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>embedding</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>conv+bn+relu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxpool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>concat+reshape</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fc+bn_relu+dropout</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fc+softmax</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络结构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>embedding</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>conv+relu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>concat+reshape+dropout</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fc+softmax</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_epoch (update embedding)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_retrain</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_max_epoch (num_epochs)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lr (learning rate)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>decay_rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>keep_prob</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>decay_step</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>valid_step</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_f1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -565,7 +565,7 @@
   <dimension ref="B1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -580,26 +580,26 @@
   <sheetData>
     <row r="1" spans="2:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="7"/>
       <c r="E1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F1" s="7"/>
     </row>
     <row r="2" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
@@ -610,21 +610,21 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1">
         <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3">
         <v>256</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" s="3">
         <v>0.5</v>
@@ -646,7 +646,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -655,7 +655,7 @@
     <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C7" s="3"/>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="3">
         <v>30</v>
@@ -664,7 +664,7 @@
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C8" s="3"/>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="3">
         <v>150</v>
@@ -673,7 +673,7 @@
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C9" s="3"/>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="3">
         <v>1024</v>
@@ -684,21 +684,21 @@
     </row>
     <row r="13" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1">
         <v>64</v>
@@ -706,13 +706,13 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="1">
         <v>200</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="3">
         <v>6</v>
@@ -720,13 +720,13 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="1">
         <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F16" s="3">
         <v>10000</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1">
         <v>100</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1">
         <v>5</v>
@@ -750,13 +750,13 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="5">
         <v>1E-3</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" s="3">
         <v>1E-3</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F21" s="3" t="b">
         <v>0</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F23" s="3">
         <v>0.65</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F24" s="3">
         <v>15000</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F25" s="3">
         <v>0.4</v>
@@ -804,55 +804,55 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B29" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B31" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/参数对比.xlsx
+++ b/参数对比.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>filter_sizes</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -94,15 +94,111 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>title_len</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_len</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络结构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>embedding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv+bn+relu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxpool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concat+reshape</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc+softmax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络结构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>embedding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>conv+relu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concat+reshape+dropout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc+softmax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_epoch (update embedding)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_retrain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_max_epoch (num_epochs)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lr (learning rate)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep_prob</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_step</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid_step</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>last_f1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fc+bn+relu+dropout</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>num_filters</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>title_len</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>content_len</t>
+    <t>sequence_length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>embeddding_lookup_table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>W_embedding</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -110,91 +206,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>网络结构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>embedding</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>conv+bn+relu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>maxpool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>concat+reshape</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fc+softmax</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络结构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>embedding</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>conv+relu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>concat+reshape+dropout</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fc+softmax</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_epoch (update embedding)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_retrain</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_max_epoch (num_epochs)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lr (learning rate)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>decay_rate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>keep_prob</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>decay_step</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>valid_step</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>last_f1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fc+bn+relu+dropout</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>num_filters</t>
+    <t>n_filter</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -235,12 +247,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -257,7 +275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,6 +299,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F35"/>
+  <dimension ref="B1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -602,263 +632,281 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
+    <row r="3" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="7">
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="11"/>
+      <c r="C4" s="7"/>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="1">
-        <v>128</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="3">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.5</v>
-      </c>
+      <c r="C5" s="6"/>
+      <c r="E5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="1">
+        <v>128</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="3">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C9" s="1">
         <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C7" s="3"/>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C8" s="3"/>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="3">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C9" s="3"/>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1024</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C10" s="3"/>
-    </row>
-    <row r="13" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="s">
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="14" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
-        <v>200</v>
-      </c>
-      <c r="E15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="3">
-        <v>6</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F16" s="3">
-        <v>10000</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="1">
         <v>100</v>
       </c>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="3">
+        <v>10000</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="4" t="s">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C20" s="5">
         <v>1E-3</v>
       </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="3">
         <v>1E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="3" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="F22" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E23" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F23" s="3">
-        <v>0.65</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F24" s="3">
-        <v>15000</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.15">
       <c r="E25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F25" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B29" s="6" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B31" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B32" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E32" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B30" s="2" t="s">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B34" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B31" s="2" t="s">
+      <c r="E34" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B32" s="2" t="s">
+      <c r="E35" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E36" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E35" t="s">
-        <v>26</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
